--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142512.0846143665</v>
+        <v>24568548.77969907</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142512.0846143665</v>
+        <v>24568548.77969907</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46371.49209626899</v>
+        <v>5850525.295335672</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46371.49209626899</v>
+        <v>5850525.295335672</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1493686725.14541</v>
+        <v>53290951.66710423</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11179.58050588488</v>
+        <v>1095118.389975253</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22261.60561598551</v>
+        <v>2175858.28796466</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33347.01072607747</v>
+        <v>3257270.8059548</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44688.95402904903</v>
+        <v>4308195.805119119</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55719.58747589322</v>
+        <v>5389963.465967099</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66651.49848961121</v>
+        <v>6487445.126962644</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77613.79383719128</v>
+        <v>7598598.530750546</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>88592.46918477667</v>
+        <v>8713011.554538073</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100285.6115376177</v>
+        <v>9748677.38412513</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>110900.2713045204</v>
+        <v>10881194.84734179</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>121317.0179953035</v>
+        <v>12055505.55917937</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>131761.28059287</v>
+        <v>13235291.93646933</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>142205.5431904395</v>
+        <v>14415078.31375933</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>154125.9695044106</v>
+        <v>15438832.77657752</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>168187.4526075845</v>
+        <v>16193900.27594642</v>
       </c>
     </row>
   </sheetData>
@@ -27055,7 +27055,7 @@
         <v>20.00000000061385</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>2.169394427112171e-10</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>33</v>
